--- a/_DOCUMENTS_/TODO.xlsx
+++ b/_DOCUMENTS_/TODO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Pengaturan potongan harga per grup customer dibuang</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>master produk tambah keterangan deskripsi unit</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -389,72 +392,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C13"/>
+  <dimension ref="B3:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>42462</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
